--- a/Sprint 1/Global/BD/Excell/questionChoixReponse.xlsx
+++ b/Sprint 1/Global/BD/Excell/questionChoixReponse.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>Texte</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Intégration dans le milieu </t>
   </si>
@@ -93,7 +90,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -103,18 +100,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -129,11 +120,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -419,131 +407,192 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="76.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="76.44140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
